--- a/results/[13_zero_co2_price]_#_inv_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_inv_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20522.18860977046</v>
+        <v>44809.96542313504</v>
       </c>
       <c r="B2" t="n">
-        <v>4142.092241107497</v>
+        <v>19576.62650831837</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41512.91054911</v>
+        <v>135535.499643962</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>55618.14581730498</v>
+        <v>42315.16049510826</v>
       </c>
       <c r="H2" t="n">
-        <v>483896.1416666667</v>
+        <v>488787.6484426507</v>
       </c>
       <c r="I2" t="n">
-        <v>276019.7061347967</v>
+        <v>403424.0040594552</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>55634.10618343929</v>
+        <v>50337.28263146494</v>
       </c>
       <c r="O2" t="n">
-        <v>52639.27291180675</v>
+        <v>69397.29901820578</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>113084.4733944232</v>
+        <v>29601.27271984311</v>
       </c>
       <c r="B2" t="n">
-        <v>17330.65768284789</v>
+        <v>101099.0316572796</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>190468.2237246214</v>
+        <v>66023.91524459935</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24580.87797003612</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>121064.6558086545</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>549291.6940323017</v>
+        <v>203788.0418410577</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7340.531224494713</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>87742.57449355339</v>
+        <v>18425.67154306719</v>
       </c>
       <c r="O2" t="n">
-        <v>70288.65119199081</v>
+        <v>34031.99607318347</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>217918.2574777324</v>
+        <v>82423.16832641534</v>
       </c>
       <c r="B2" t="n">
-        <v>158302.2504302748</v>
+        <v>16911.72700928294</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81401.01218781166</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>872151.3246367179</v>
+        <v>178689.2597542998</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>317314.2906682668</v>
+        <v>31702.65741071548</v>
       </c>
       <c r="N2" t="n">
-        <v>52004.04765895778</v>
+        <v>9464.444644938132</v>
       </c>
       <c r="O2" t="n">
-        <v>194424.6857076499</v>
+        <v>53633.84592823405</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_inv_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44809.96542313504</v>
+        <v>43865.8098096851</v>
       </c>
       <c r="B2" t="n">
-        <v>19576.62650831837</v>
+        <v>18877.50563722889</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135535.499643962</v>
+        <v>135823.52998632</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>42315.16049510826</v>
+        <v>42315.16049511674</v>
       </c>
       <c r="H2" t="n">
-        <v>488787.6484426507</v>
+        <v>493223.6395174918</v>
       </c>
       <c r="I2" t="n">
-        <v>403424.0040594552</v>
+        <v>403072.1206296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>50337.28263146494</v>
+        <v>51593.46271940265</v>
       </c>
       <c r="O2" t="n">
-        <v>69397.29901820578</v>
+        <v>69302.79012968208</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29601.27271984311</v>
+        <v>51440.97267772973</v>
       </c>
       <c r="B2" t="n">
-        <v>101099.0316572796</v>
+        <v>131602.3685301121</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66023.91524459935</v>
+        <v>112231.8351973442</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>105153.7033457349</v>
       </c>
       <c r="I2" t="n">
-        <v>203788.0418410577</v>
+        <v>335356.0663069373</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18425.67154306719</v>
+        <v>24263.37816951394</v>
       </c>
       <c r="O2" t="n">
-        <v>34031.99607318347</v>
+        <v>52593.17366863995</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82423.16832641534</v>
+        <v>85834.0918338597</v>
       </c>
       <c r="B2" t="n">
-        <v>16911.72700928294</v>
+        <v>2.418741552752816</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>178689.2597542998</v>
+        <v>176628.7208800473</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31702.65741071548</v>
+        <v>28128.83060279026</v>
       </c>
       <c r="N2" t="n">
-        <v>9464.444644938132</v>
+        <v>11927.45854640803</v>
       </c>
       <c r="O2" t="n">
-        <v>53633.84592823405</v>
+        <v>57190.46047809131</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_inv_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_inv_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20522.18860977046</v>
+        <v>23249.63992519084</v>
       </c>
       <c r="B2" t="n">
-        <v>4142.092241107497</v>
+        <v>126908.8985174754</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>357635.5813371721</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41512.91054911</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>55618.14581730498</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>483896.1416666667</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>276019.7061347967</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>55634.10618343929</v>
+        <v>13545.20277791833</v>
       </c>
       <c r="O2" t="n">
-        <v>52639.27291180675</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>113084.4733944232</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17330.65768284789</v>
+        <v>192431.6180275529</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1210594.748940101</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>190468.2237246214</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24580.87797003612</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>121064.6558086545</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="I2" t="n">
-        <v>549291.6940323017</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7340.531224494713</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>87742.57449355339</v>
+        <v>36342.11566512968</v>
       </c>
       <c r="O2" t="n">
-        <v>70288.65119199081</v>
+        <v>37387.51309567104</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,19 +803,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>217918.2574777324</v>
+        <v>35198.65954060964</v>
       </c>
       <c r="B2" t="n">
-        <v>158302.2504302748</v>
+        <v>394317.0646637932</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>202349.1944106802</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81401.01218781166</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41828.18095705035</v>
       </c>
       <c r="I2" t="n">
-        <v>872151.3246367179</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>317314.2906682668</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52004.04765895778</v>
+        <v>44431.34323879791</v>
       </c>
       <c r="O2" t="n">
-        <v>194424.6857076499</v>
+        <v>39123.60766563746</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[13_zero_co2_price]_#_inv_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43865.8098096851</v>
+        <v>43865.8098096848</v>
       </c>
       <c r="B2" t="n">
-        <v>18877.50563722889</v>
+        <v>18877.50563722885</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>42315.16049511674</v>
+        <v>42315.16049511734</v>
       </c>
       <c r="H2" t="n">
-        <v>493223.6395174918</v>
+        <v>493223.6395174916</v>
       </c>
       <c r="I2" t="n">
         <v>403072.1206296</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>51593.46271940265</v>
+        <v>51593.46271940257</v>
       </c>
       <c r="O2" t="n">
         <v>69302.79012968208</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51440.97267772973</v>
+        <v>51440.97267772874</v>
       </c>
       <c r="B2" t="n">
         <v>131602.3685301121</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>105153.7033457349</v>
+        <v>105153.703345735</v>
       </c>
       <c r="I2" t="n">
         <v>335356.0663069373</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24263.37816951394</v>
+        <v>24263.3781695147</v>
       </c>
       <c r="O2" t="n">
-        <v>52593.17366863995</v>
+        <v>52593.17366864</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85834.0918338597</v>
+        <v>85834.09183386156</v>
       </c>
       <c r="B2" t="n">
-        <v>2.418741552752816</v>
+        <v>2.418741550959045</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>176628.7208800473</v>
+        <v>176628.7208800472</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28128.83060279026</v>
+        <v>28128.83060279029</v>
       </c>
       <c r="N2" t="n">
-        <v>11927.45854640803</v>
+        <v>11927.45854640726</v>
       </c>
       <c r="O2" t="n">
-        <v>57190.46047809131</v>
+        <v>57190.46047809157</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_inv_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
